--- a/data/trans_camb/P25_11-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25_11-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,73</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-2,92</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,67</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 2,69</t>
+          <t>-17,25; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 2,93</t>
+          <t>-17,25; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 10,55</t>
+          <t>-3,14; 23,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 5,08</t>
+          <t>-10,6; 6,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 5,27</t>
+          <t>-12,23; 4,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 3,12</t>
+          <t>-9,55; 9,46</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-7,92; 3,44</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-10,02; 1,15</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-2,97; 12,68</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-13,74%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,28%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>91,25%</t>
+          <t>248,52%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,56%</t>
+          <t>-9,43%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>56,84%</t>
+          <t>-51,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-9,93%</t>
+          <t>-2,13%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-42,38%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-71,58%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>90,04%</t>
         </is>
       </c>
     </row>
@@ -725,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,12 +811,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-79,36; 719,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-74,32; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>-6,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>4,92</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,17</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-2,07</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-1,03</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 4,33</t>
+          <t>-14,42; 6,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 2,66</t>
+          <t>-12,99; 7,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 6,71</t>
+          <t>-17,25; 1,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 0,0</t>
+          <t>-4,75; 7,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 3,91</t>
+          <t>-10,64; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 1,23</t>
+          <t>-2,31; 13,77</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-7,71; 4,03</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-8,16; 2,88</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-8,02; 4,08</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-35,8%</t>
+          <t>-49,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-48,29%</t>
+          <t>-32,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>131,25%</t>
+          <t>-78,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>73,04%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,44%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-55,78%</t>
+          <t>238,8%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-23,83%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-42,15%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-20,95%</t>
         </is>
       </c>
     </row>
@@ -871,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 287,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 200,33</t>
+          <t>-100,0; 444,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -891,12 +1027,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-72,86; 332,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-89,97; 283,74</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-88,28; 212,94</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>8,79</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,14</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,25</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3,14</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,48; 1,02</t>
+          <t>0,0; 9,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 16,53</t>
+          <t>0,0; 13,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 8,87</t>
+          <t>2,21; 21,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 7,0</t>
+          <t>-5,9; 9,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 3,82</t>
+          <t>-7,41; 9,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 8,14</t>
+          <t>-7,99; 7,4</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-3,63; 7,01</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 7,07</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-2,52; 8,9</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-70,19%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>79,73%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,83%</t>
+          <t>24,96%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,25%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>-4,32%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>40,25%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>42,46%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>59,19%</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-36,83; 128,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,14; 87,56</t>
+          <t>-51,56; 187,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,72; 77,48</t>
+          <t>-61,82; 185,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-45,54; 163,79</t>
+          <t>-67,38; 150,53</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-49,41; 206,18</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-43,67; 206,49</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-42,95; 257,44</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>7,62</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2,45</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4,21</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 9,61</t>
+          <t>-4,71; 9,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 7,75</t>
+          <t>-5,81; 7,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 8,57</t>
+          <t>-5,83; 8,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 10,38</t>
+          <t>-11,85; 6,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 6,93</t>
+          <t>-5,52; 15,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 7,27</t>
+          <t>-2,93; 18,88</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-7,2; 5,34</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-4,75; 8,82</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 11,11</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>105,7%</t>
+          <t>32,21%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>73,04%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>21,38%</t>
+          <t>-14,54%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>31,23%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>28,48%</t>
+          <t>50,32%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-4,88%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>23,72%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>40,68%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-35,9; 615,72</t>
+          <t>-71,31; 707,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-47,79; 634,78</t>
+          <t>-78,76; 593,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-39,34; 82,67</t>
+          <t>-80,52; 568,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-26,17; 111,38</t>
+          <t>-60,49; 75,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,75; 96,58</t>
+          <t>-27,68; 162,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,48; 113,53</t>
+          <t>-15,27; 203,44</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-54,3; 77,18</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-33,2; 123,75</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-25,12; 155,57</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,35</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>5,89</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>7,54</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,57</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,99</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>6,52</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 4,66</t>
+          <t>-10,51; 8,37</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 7,69</t>
+          <t>-7,91; 13,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 16,42</t>
+          <t>-5,82; 16,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 11,79</t>
+          <t>-9,32; 21,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 9,1</t>
+          <t>-9,03; 20,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 8,09</t>
+          <t>-7,38; 23,37</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-5,97; 10,25</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-4,22; 13,65</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-2,18; 15,39</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-12,21%</t>
+          <t>-9,65%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>28,64%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>46,89%</t>
+          <t>56,77%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>36,24%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>27,19%</t>
+          <t>41,32%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>52,91%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>14,08%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>35,83%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>58,56%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-74,19; 157,25</t>
+          <t>-78,4; 230,08</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-58,16; 240,89</t>
+          <t>-60,83; 300,64</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 182,58</t>
+          <t>-50,27; 385,94</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-43,55; 130,31</t>
+          <t>-47,81; 291,38</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 141,21</t>
+          <t>-47,34; 278,02</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-31,82; 120,2</t>
+          <t>-38,52; 306,57</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-41,77; 155,28</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-31,3; 189,1</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-14,96; 227,51</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-3,43</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-6,46</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-3,31</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-1,81</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1,81</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 9,18</t>
+          <t>-15,99; 10,33</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 4,07</t>
+          <t>-17,52; 7,33</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 3,15</t>
+          <t>-12,59; 14,05</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-14,4; 11,23</t>
+          <t>-8,92; 17,72</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 3,06</t>
+          <t>-11,81; 10,41</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 6,68</t>
+          <t>-10,2; 17,11</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-7,91; 9,57</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-10,32; 6,18</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-7,45; 11,29</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>-26,78%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-28,47%</t>
+          <t>-38,84%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-45,55%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-7,45%</t>
+          <t>36,76%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-31,92%</t>
+          <t>-5,6%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-9,01%</t>
+          <t>20,8%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>7,87%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-20,56%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>20,55%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-82,85; 450,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 266,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-82,13; 59,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-68,14; 136,56</t>
+          <t>-72,47; 611,24</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-75,62; 47,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-62,64; 106,33</t>
+          <t>-84,49; 502,37</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-63,36; 223,99</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-78,44; 163,99</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-63,14; 232,57</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>3,42</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>2,87</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 1,76</t>
+          <t>-4,41; 2,52</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 3,55</t>
+          <t>-3,97; 2,68</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 4,95</t>
+          <t>-1,32; 6,37</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 3,91</t>
+          <t>-2,79; 5,17</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 2,3</t>
+          <t>-2,6; 5,26</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,5</t>
+          <t>-0,76; 8,19</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-2,44; 2,93</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-2,47; 2,82</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-0,1; 5,86</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-8,12%</t>
+          <t>-15,93%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>-5,84%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>44,95%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>37,59%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>2,63%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>4,49%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>38,73%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-49,06; 58,86</t>
+          <t>-62,4; 64,62</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-40,47; 111,39</t>
+          <t>-53,91; 73,09</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 58,57</t>
+          <t>-22,44; 155,98</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-25,75; 47,33</t>
+          <t>-24,89; 74,04</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-21,12; 37,23</t>
+          <t>-23,33; 72,78</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-22,0; 40,69</t>
+          <t>-7,28; 113,32</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-28,65; 46,81</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-29,32; 44,97</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-4,44; 91,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
